--- a/사용자 정보2.xlsx
+++ b/사용자 정보2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mini/PycharmProjects/Woorimal_proto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D210F8-8DB5-E042-91CA-4F888767527C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DE08A1-9A44-3A43-BFDA-6DD85E631394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="2540" windowWidth="19660" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="21340" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="8">
   <si>
     <t>유저 아이디</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="L188" sqref="L188"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="K186" sqref="K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -3537,499 +3537,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182">
-        <v>13</v>
-      </c>
-      <c r="B182">
-        <v>7</v>
-      </c>
-      <c r="C182" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182">
-        <v>5</v>
-      </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183">
-        <v>13</v>
-      </c>
-      <c r="B183">
-        <v>14</v>
-      </c>
-      <c r="C183" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183">
-        <v>5</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184">
-        <v>13</v>
-      </c>
-      <c r="B184">
-        <v>15</v>
-      </c>
-      <c r="C184" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184">
-        <v>5</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185">
-        <v>13</v>
-      </c>
-      <c r="B185">
-        <v>30</v>
-      </c>
-      <c r="C185" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185">
-        <v>5</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186">
-        <v>13</v>
-      </c>
-      <c r="B186">
-        <v>33</v>
-      </c>
-      <c r="C186" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186">
-        <v>5</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187">
-        <v>13</v>
-      </c>
-      <c r="B187">
-        <v>38</v>
-      </c>
-      <c r="C187" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187">
-        <v>5</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188">
-        <v>13</v>
-      </c>
-      <c r="B188">
-        <v>58</v>
-      </c>
-      <c r="C188" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188">
-        <v>5</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189">
-        <v>13</v>
-      </c>
-      <c r="B189">
-        <v>59</v>
-      </c>
-      <c r="C189" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189">
-        <v>5</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190">
-        <v>13</v>
-      </c>
-      <c r="B190">
-        <v>60</v>
-      </c>
-      <c r="C190" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190">
-        <v>5</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191">
-        <v>13</v>
-      </c>
-      <c r="B191">
-        <v>72</v>
-      </c>
-      <c r="C191" t="s">
-        <v>7</v>
-      </c>
-      <c r="D191">
-        <v>5</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192">
-        <v>13</v>
-      </c>
-      <c r="B192">
-        <v>74</v>
-      </c>
-      <c r="C192" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192">
-        <v>5</v>
-      </c>
-      <c r="E192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193">
-        <v>13</v>
-      </c>
-      <c r="B193">
-        <v>86</v>
-      </c>
-      <c r="C193" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193">
-        <v>5</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194">
-        <v>13</v>
-      </c>
-      <c r="B194">
-        <v>121</v>
-      </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194">
-        <v>5</v>
-      </c>
-      <c r="E194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195">
-        <v>13</v>
-      </c>
-      <c r="B195">
-        <v>129</v>
-      </c>
-      <c r="C195" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195">
-        <v>5</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196">
-        <v>13</v>
-      </c>
-      <c r="B196">
-        <v>131</v>
-      </c>
-      <c r="C196" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196">
-        <v>5</v>
-      </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197">
-        <v>13</v>
-      </c>
-      <c r="B197">
-        <v>233</v>
-      </c>
-      <c r="C197" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197">
-        <v>5</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198">
-        <v>13</v>
-      </c>
-      <c r="B198">
-        <v>214</v>
-      </c>
-      <c r="C198" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198">
-        <v>5</v>
-      </c>
-      <c r="E198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199">
-        <v>13</v>
-      </c>
-      <c r="B199">
-        <v>191</v>
-      </c>
-      <c r="C199" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199">
-        <v>5</v>
-      </c>
-      <c r="E199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200">
-        <v>13</v>
-      </c>
-      <c r="B200">
-        <v>204</v>
-      </c>
-      <c r="C200" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200">
-        <v>5</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201">
-        <v>13</v>
-      </c>
-      <c r="B201">
-        <v>138</v>
-      </c>
-      <c r="C201" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201">
-        <v>5</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202">
-        <v>13</v>
-      </c>
-      <c r="B202">
-        <v>185</v>
-      </c>
-      <c r="C202" t="s">
-        <v>7</v>
-      </c>
-      <c r="D202">
-        <v>5</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203">
-        <v>13</v>
-      </c>
-      <c r="B203">
-        <v>187</v>
-      </c>
-      <c r="C203" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203">
-        <v>5</v>
-      </c>
-      <c r="E203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204">
-        <v>13</v>
-      </c>
-      <c r="B204">
-        <v>205</v>
-      </c>
-      <c r="C204" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204">
-        <v>5</v>
-      </c>
-      <c r="E204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205">
-        <v>13</v>
-      </c>
-      <c r="B205">
-        <v>260</v>
-      </c>
-      <c r="C205" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205">
-        <v>5</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206">
-        <v>13</v>
-      </c>
-      <c r="B206">
-        <v>258</v>
-      </c>
-      <c r="C206" t="s">
-        <v>7</v>
-      </c>
-      <c r="D206">
-        <v>5</v>
-      </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207">
-        <v>13</v>
-      </c>
-      <c r="B207">
-        <v>226</v>
-      </c>
-      <c r="C207" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207">
-        <v>5</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208">
-        <v>13</v>
-      </c>
-      <c r="B208">
-        <v>192</v>
-      </c>
-      <c r="C208" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208">
-        <v>5</v>
-      </c>
-      <c r="E208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209">
-        <v>13</v>
-      </c>
-      <c r="B209">
-        <v>139</v>
-      </c>
-      <c r="C209" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209">
-        <v>5</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210">
-        <v>13</v>
-      </c>
-      <c r="B210">
-        <v>144</v>
-      </c>
-      <c r="C210" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210">
-        <v>5</v>
-      </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
